--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3697.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3697.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.559161391776728</v>
+        <v>2.336779832839966</v>
       </c>
       <c r="B1">
-        <v>4.105295147852192</v>
+        <v>5.437224388122559</v>
       </c>
       <c r="C1">
-        <v>6.749831417575938</v>
+        <v>2.32887601852417</v>
       </c>
       <c r="D1">
-        <v>1.517583265471555</v>
+        <v>1.602648854255676</v>
       </c>
       <c r="E1">
-        <v>0.9078596945260912</v>
+        <v>1.464346051216125</v>
       </c>
     </row>
   </sheetData>
